--- a/similarities/split_global/harmonic_similarity_timestamps_228.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_228.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:12.560000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:02:06.040000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb/3', 'C:min']]</t>
+          <t>['C/3', 'F', 'C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.059795', '0:00:10.455351')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.412000', '0:00:25.282000')]</t>
+          <t>('0:01:16.585782', '0:01:19.023877')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=3.059795']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=21.412']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'D:min/A', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+          <t>('0:00:28.140000', '0:00:36.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'D:min7', 'G:7', 'C'], ['D:min7', 'G:7', 'C', 'G:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:11.060000'), ('0:01:04.660000', '0:01:14.220000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:02.270000', '0:01:09.760000'), ('0:00:04.240000', '0:00:15.040000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+          <t>('0:00:10.953139', '0:00:19.672232')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=99.445827']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:56.600000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:05.120000')]</t>
+          <t>('0:00:32.400000', '0:00:38.760000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:21.410000', '0:00:26.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=21.41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:39.148775', '0:00:43.514126')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=39.148775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G:7', 'C', 'C/b7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000'), ('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:00:34.041000', '0:00:38.588000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:00:23.140000', '0:00:30.460000')]</t>
+          <t>('0:00:20.080000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min'], ['G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:10.620000'), ('0:00:02.020000', '0:00:08.580000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:18.500000'), ('0:00:06.780000', '0:00:15.860000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=6.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C#:min', 'G#:7', 'C#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:48.240000', '0:00:55.680000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:24.282834', '0:00:31.446190')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:41.709410'), ('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:10.779093', '0:00:14.076327')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:10.540000', '0:00:12.600000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
